--- a/biology/Médecine/Hyperlaxité_de_l'épaule/Hyperlaxité_de_l'épaule.xlsx
+++ b/biology/Médecine/Hyperlaxité_de_l'épaule/Hyperlaxité_de_l'épaule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyperlaxit%C3%A9_de_l%27%C3%A9paule</t>
+          <t>Hyperlaxité_de_l'épaule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'articulation de l'épaule est la plus mobile de l'organisme[1] puisque les surfaces articulaires sont peu congruentes, ce qui explique son extrême mobilité. Par conséquent, elle est particulièrement instable.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'articulation de l'épaule est la plus mobile de l'organisme puisque les surfaces articulaires sont peu congruentes, ce qui explique son extrême mobilité. Par conséquent, elle est particulièrement instable.
 Ce manque de stabilité est essentiellement dû à la forme des surfaces osseuses, la tête de l'humérus est constituée d'un tiers de sphère s'articulant avec la glène de la scapula quasiment plane. Les deux surfaces articulaires de l'épaule sont liées par un ensemble de ligaments renforçant la capsule synoviale.  Elle s'insère d’une part sur le pourtour de la scapula par le biais du bourrelet glénoïdien et d’autre part sur le col de l'humérus.
-L'hyperlaxité est un état dans lequel les tissus, tels que les ligaments et les tendons qui maintiennent la jointure de l'articulation, sont trop lâches. Dans ce cas, il est possible de mobiliser ses articulations au-delà de l'amplitude des mouvements physiologiques[2]. Elle est plus fréquente chez les filles et les adolescents.
+L'hyperlaxité est un état dans lequel les tissus, tels que les ligaments et les tendons qui maintiennent la jointure de l'articulation, sont trop lâches. Dans ce cas, il est possible de mobiliser ses articulations au-delà de l'amplitude des mouvements physiologiques. Elle est plus fréquente chez les filles et les adolescents.
 L'hyperlaxité peut être également appelée laxité articulaire, désarticulation, articulation lâches et syndrome d'hyperlaxité.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hyperlaxit%C3%A9_de_l%27%C3%A9paule</t>
+          <t>Hyperlaxité_de_l'épaule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,20 +526,22 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En général, l'hyperlaxité n'entraîne pas de problèmes de santé supplémentaires, on l'appelle alors le syndrome d'hyperlaxité bénigne étant donné que c'est le seul symptôme à se manifester. Il peut être causé par:
 Des antécédents familiaux: l'hyperlaxité est souvent héréditaire
 La structure musculaire: le tonus ou la force musculaire
 Une mauvaise proprioception
 La structure osseuse: profondeur cavité articulaire
-Certaines personnes atteintes d'hyperlaxité développent également des raideurs ou des douleurs dans les articulations. Ce phénomène est appelé syndrome de l'hyperlaxité. Dans de rares cas, l'hyperlaxité entraîne des troubles importants[3]. 
+Certaines personnes atteintes d'hyperlaxité développent également des raideurs ou des douleurs dans les articulations. Ce phénomène est appelé syndrome de l'hyperlaxité. Dans de rares cas, l'hyperlaxité entraîne des troubles importants. 
 Certains troubles sont susceptibles d'entraîner une hyperlaxité, on retrouve par exemple: 
 La trisomie 21
 La dysplasie cléidocrânienne (un trouble héréditaire du développement des os)
 Le syndrome d'Ehlers-Danlos (un trouble génétique qui affecte la production de collagène )
 Le syndrome de Marfan (un trouble des tissus conjonctifs)
-Le syndrome de Morquio (une maladie héréditaire qui affecte le métabolisme)[4]</t>
+Le syndrome de Morquio (une maladie héréditaire qui affecte le métabolisme)</t>
         </is>
       </c>
     </row>
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hyperlaxit%C3%A9_de_l%27%C3%A9paule</t>
+          <t>Hyperlaxité_de_l'épaule</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,9 +569,11 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'hyperlaxité de l'épaule entraînera une instabilité de l'articulation gléno-humérale. Pour 95 % des cas il s'agira d'une instabilité antérieure et pour 5 % des personnes d'une instabilité postérieure[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'hyperlaxité de l'épaule entraînera une instabilité de l'articulation gléno-humérale. Pour 95 % des cas il s'agira d'une instabilité antérieure et pour 5 % des personnes d'une instabilité postérieure. 
 Une sensation de douleur peut être ressentie et un manque de stabilité lors d'activités de la vie quotidienne.
 Néanmoins la plupart du temps, les personnes affectées par l'hyperlaxité ne présentent pas d'autres symptômes et ne nécessitent donc pas de traitement particulier. 
 Toutefois, il sera nécessaire de consulter un médecin en cas: 
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hyperlaxit%C3%A9_de_l%27%C3%A9paule</t>
+          <t>Hyperlaxité_de_l'épaule</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,9 +607,11 @@
           <t>Examen clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe le test d'hyper-abduction de Gagey[6], l'examinateur se place derrière le patient. Il stabilise la scapula en appuyant fortement sur le dessus de l'épaule avec son avant-bras pour mobiliser uniquement la gléno-huméral. Il porte le bras du patient en abduction pure. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe le test d'hyper-abduction de Gagey, l'examinateur se place derrière le patient. Il stabilise la scapula en appuyant fortement sur le dessus de l'épaule avec son avant-bras pour mobiliser uniquement la gléno-huméral. Il porte le bras du patient en abduction pure. 
 Les interprétations de ce test divergent selon certains auteurs. Pour Gagey, toute amplitude en abduction dépassant 105° signe une rupture ou distension du ligament gléno-huméral inférieur, quelle que soit l’amplitude controlatérale. Tandis que pour Boileau, si la différence entre le côté sain et le côté pathologie est supérieure à 20°, on parle alors de laxité inférieure signant également une distension du ligament gléno-huméral inférieur. 
 De plus on peut y ajouter, le Sulcus test de Neer (1980) qui correspond à une translation inférieure de la tête humérale. Comme pour la recherche des tiroirs, cette manœuvre est non douloureuse et ne réveille pas d’appréhension. On réalise une contre prise sur la face postérieure du poignet ainsi qu'une prise sur la partie antérieure de l'avant bras avec le coude plié ce qui va permettre un glissement inférieur de la tête humérale.
 On peut effectuer une recherche des tiroirs antéropostérieurs en adduction. L’examinateur essaye d’évaluer l’amplitude de la translation de la tête humérale. Cette translation est asymptomatique si elle reste dans une amplitude habituelle, et ne réveille pas d’appréhension chez le patient sain. Pour ce test on va réaliser une contre prise sur la scapula permettant son immobilisation et une prise sur le moignon de l'épaule pour effectuer le glissement antérieure et postérieure.
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hyperlaxit%C3%A9_de_l%27%C3%A9paule</t>
+          <t>Hyperlaxité_de_l'épaule</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,7 +644,9 @@
           <t>Complications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hyperlaxités constitutionnelles de l’épaule ne s’intègrent pas toujours dans des hyperlaxités généralisées aux autres articulations comme le genou ou le coude.
 Néanmoins, l’hyperlaxité des épaules est pratiquement toujours associée à une hyperlaxité des chevilles.
@@ -647,7 +667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hyperlaxit%C3%A9_de_l%27%C3%A9paule</t>
+          <t>Hyperlaxité_de_l'épaule</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,9 +685,11 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le meilleur traitement consistera principalement à soulager la douleur et renforcer l'articulation.  Le médecin peut suggérer l'utilisation de médicaments antalgiques sur ordonnance ou en vente libre, des pommades ou des sprays pour soulager une douleur au niveau des articulations. Il peut également recommander certains exercices et de la kinésithérapie[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le meilleur traitement consistera principalement à soulager la douleur et renforcer l'articulation.  Le médecin peut suggérer l'utilisation de médicaments antalgiques sur ordonnance ou en vente libre, des pommades ou des sprays pour soulager une douleur au niveau des articulations. Il peut également recommander certains exercices et de la kinésithérapie.
 Ainsi pour diminuer le risque de complication, il est possible d'adopter les mesures suivantes : 
 Faire de l'exercice tel que le yoga pour renforcer les muscles situés autour de l'articulation (muscles de la coiffe des rotateurs)
 Apprendre à connaître l'amplitude de mouvement normale pour chaque articulation afin d'éviter l'hyperextension
